--- a/hw_2/results/lab2.xlsx
+++ b/hw_2/results/lab2.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Кол-во эл-тов (степень 2)</t>
   </si>
@@ -39,6 +42,18 @@
   </si>
   <si>
     <t>MergeSort</t>
+  </si>
+  <si>
+    <t>LeftistHeapSort</t>
+  </si>
+  <si>
+    <t>D-heapSort (d = 3)</t>
+  </si>
+  <si>
+    <t>MWMergeSort (3 ways)</t>
+  </si>
+  <si>
+    <t>MWMergeSort (selection tree, 3 ways)</t>
   </si>
 </sst>
 </file>
@@ -173,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -188,8 +203,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -317,112 +330,47 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.7829999999999998E-4</c:v>
+                  <c:v>3.9100000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4149999999999997E-4</c:v>
+                  <c:v>7.9849999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.529E-3</c:v>
+                  <c:v>1.634E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3013000000000001E-3</c:v>
+                  <c:v>3.1519999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8939999999999999E-3</c:v>
+                  <c:v>6.1706E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3917499999999999E-2</c:v>
+                  <c:v>1.4499E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6497699999999999E-2</c:v>
+                  <c:v>2.751E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9457799999999998E-2</c:v>
+                  <c:v>5.2683899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12091499999999999</c:v>
+                  <c:v>0.1132156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23883689999999999</c:v>
+                  <c:v>0.23550119999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47371750000000001</c:v>
+                  <c:v>0.46184890000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94210150000000004</c:v>
+                  <c:v>0.91034090000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9093859</c:v>
+                  <c:v>1.9035941000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7811995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$D$5:$Q$5</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1048576</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$7:$Q$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="14"/>
+                  <c:v>3.8160758000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -436,11 +384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219932624"/>
-        <c:axId val="219926352"/>
+        <c:axId val="367855208"/>
+        <c:axId val="367858736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219932624"/>
+        <c:axId val="367855208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,12 +417,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219926352"/>
+        <c:crossAx val="367858736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219926352"/>
+        <c:axId val="367858736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +457,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219932624"/>
+        <c:crossAx val="367855208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -551,9 +499,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MergeSort</a:t>
+              <a:t>HeapSort</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -571,7 +518,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$13:$Q$13</c:f>
+              <c:f>Лист1!$D$9:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -622,51 +569,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$14:$Q$14</c:f>
+              <c:f>Лист1!$D$10:$Q$10</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>7.2200000000000007E-5</c:v>
+                  <c:v>2.4699999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7829999999999998E-4</c:v>
+                  <c:v>5.1579999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8529999999999999E-4</c:v>
+                  <c:v>1.1326000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3339999999999998E-4</c:v>
+                  <c:v>2.5092999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8073E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>3.5016000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>9.9197E-3</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.6637800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>4.5095900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>9.5846600000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.17771000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0.31670290000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>0.70050109999999999</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>1.2860301999999999</c:v>
+                  <c:v>5.3042999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2391299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8431700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3371800000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13267390000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22083269999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50887230000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0385103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2221183999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5963928999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,11 +628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219927528"/>
-        <c:axId val="219927920"/>
+        <c:axId val="367883432"/>
+        <c:axId val="367883824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219927528"/>
+        <c:axId val="367883432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,12 +661,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219927920"/>
+        <c:crossAx val="367883824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219927920"/>
+        <c:axId val="367883824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,19 +684,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время работы алгоритма, с</a:t>
+                  <a:t>Время</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> работы алгоритма, с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219927528"/>
+        <c:crossAx val="367883432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -791,9 +743,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>HeapSort</a:t>
+              <a:t>MergeSort</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -811,7 +762,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$9:$Q$9</c:f>
+              <c:f>Лист1!$D$13:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -862,51 +813,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$10:$Q$10</c:f>
+              <c:f>Лист1!$D$14:$Q$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.921E-4</c:v>
+                  <c:v>8.1199999999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2989999999999997E-4</c:v>
+                  <c:v>1.7640000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1711E-3</c:v>
+                  <c:v>3.6759999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6857999999999999E-3</c:v>
+                  <c:v>8.1249999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9883999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.121168</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7891699999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.30225E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1154678</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2179825</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.49121179999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0796962000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2684131999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.8327337000000004</c:v>
+                  <c:v>2.7940999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.6058000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>9.6098999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.52631E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>4.09056E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>8.4637000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.15823400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.33832319999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.68910470000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.3098331999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219929096"/>
-        <c:axId val="219929488"/>
+        <c:axId val="367856384"/>
+        <c:axId val="367863048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219929096"/>
+        <c:axId val="367856384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,13 +893,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Количество</a:t>
+                  <a:t>Количество элементов в массиве</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> элементов в массиве</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -959,12 +905,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219929488"/>
+        <c:crossAx val="367863048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219929488"/>
+        <c:axId val="367863048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,11 +928,725 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время работы алгоритма,</a:t>
+                  <a:t>Время</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> с</a:t>
+                  <a:t> работы алгоритма, с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="367856384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>D-HeapSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$26:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.499E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1749999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4785E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9320000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4485000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.46541E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.9522900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>7.45112E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.12684139999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.26957219999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.58267069999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.2271125000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.5768135999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>5.4990740000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="313638800"/>
+        <c:axId val="313641152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="313638800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество элементов в массиве</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="313641152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="313641152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> работы алгоритма, с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="313638800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LeftistHeapSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$29:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$30:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.0599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2363999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8170999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4878999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.5850699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>4.0823499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.5340800000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.13601060000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.33168429999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.77328300000000005</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.6688417000000002</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>8.5369285000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>12.5270075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316171560"/>
+        <c:axId val="316172736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316171560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество элементов в массиве</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="316172736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316172736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> работы алгоритма, с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="316171560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MultiWayMergeSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.6870000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4749999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4071000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6928E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4320000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7066600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7819600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1057158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36983559999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3226891000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9553168999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316167248"/>
+        <c:axId val="316167640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316167248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество элементов в массиве</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="316167640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316167640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> работы алгоритма, с</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -999,7 +1659,251 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219929096"/>
+        <c:crossAx val="316167248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MultiWayMergeSort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (selection tree)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1417884063299911"/>
+          <c:y val="3.1128404669260701E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.4090000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4375E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1097E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9708999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.41157E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3729500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4215899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1847193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51248179999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5792938000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3206106000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.869207899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="367869320"/>
+        <c:axId val="367871280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="367869320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество элементов в массиве</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="367871280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="367871280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> работы алгоритма, с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="367869320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1020,21 +1924,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="43" name="Диаграмма 42"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1050,21 +1956,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="47" name="Диаграмма 46"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1080,21 +1988,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>866774</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="49" name="Диаграмма 48"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1108,7 +2018,241 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>866774</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Диаграмма 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Диаграмма 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Диаграмма 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="D5">
+            <v>128</v>
+          </cell>
+          <cell r="E5">
+            <v>256</v>
+          </cell>
+          <cell r="F5">
+            <v>512</v>
+          </cell>
+          <cell r="G5">
+            <v>1024</v>
+          </cell>
+          <cell r="H5">
+            <v>2048</v>
+          </cell>
+          <cell r="I5">
+            <v>4096</v>
+          </cell>
+          <cell r="J5">
+            <v>8192</v>
+          </cell>
+          <cell r="K5">
+            <v>16384</v>
+          </cell>
+          <cell r="L5">
+            <v>32768</v>
+          </cell>
+          <cell r="M5">
+            <v>65536</v>
+          </cell>
+          <cell r="N5">
+            <v>131072</v>
+          </cell>
+          <cell r="O5">
+            <v>262144</v>
+          </cell>
+          <cell r="P5">
+            <v>524288</v>
+          </cell>
+          <cell r="Q5">
+            <v>1048576</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>3.7829999999999998E-4</v>
+          </cell>
+          <cell r="E6">
+            <v>7.4149999999999997E-4</v>
+          </cell>
+          <cell r="F6">
+            <v>1.529E-3</v>
+          </cell>
+          <cell r="G6">
+            <v>3.3013000000000001E-3</v>
+          </cell>
+          <cell r="H6">
+            <v>5.8939999999999999E-3</v>
+          </cell>
+          <cell r="I6">
+            <v>1.3917499999999999E-2</v>
+          </cell>
+          <cell r="J6">
+            <v>2.6497699999999999E-2</v>
+          </cell>
+          <cell r="K6">
+            <v>5.9457799999999998E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>0.12091499999999999</v>
+          </cell>
+          <cell r="M6">
+            <v>0.23883689999999999</v>
+          </cell>
+          <cell r="N6">
+            <v>0.47371750000000001</v>
+          </cell>
+          <cell r="O6">
+            <v>0.94210150000000004</v>
+          </cell>
+          <cell r="P6">
+            <v>1.9093859</v>
+          </cell>
+          <cell r="Q6">
+            <v>3.7811995</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1398,15 +2542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -1421,6 +2563,7 @@
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="13.140625" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1573,72 +2716,72 @@
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
-        <v>3.7829999999999998E-4</v>
-      </c>
-      <c r="E6" s="16">
-        <v>7.4149999999999997E-4</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1.529E-3</v>
-      </c>
-      <c r="G6" s="16">
-        <v>3.3013000000000001E-3</v>
-      </c>
-      <c r="H6" s="16">
-        <v>5.8939999999999999E-3</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1.3917499999999999E-2</v>
-      </c>
-      <c r="J6" s="16">
-        <v>2.6497699999999999E-2</v>
-      </c>
-      <c r="K6" s="16">
-        <v>5.9457799999999998E-2</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0.12091499999999999</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0.23883689999999999</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0.47371750000000001</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0.94210150000000004</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1.9093859</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>3.7811995</v>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14">
+        <v>3.9100000000000002E-4</v>
+      </c>
+      <c r="E6" s="14">
+        <v>7.9849999999999995E-4</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1.634E-3</v>
+      </c>
+      <c r="G6" s="14">
+        <v>3.1519999999999999E-3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>6.1706E-3</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1.4499E-2</v>
+      </c>
+      <c r="J6" s="14">
+        <v>2.751E-2</v>
+      </c>
+      <c r="K6" s="14">
+        <v>5.2683899999999999E-2</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.1132156</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.23550119999999999</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.46184890000000001</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.91034090000000001</v>
+      </c>
+      <c r="P6" s="15">
+        <v>1.9035941000000001</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>3.8160758000000001</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="20"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
@@ -1727,46 +2870,46 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9">
-        <v>2.921E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="E10" s="9">
-        <v>6.2989999999999997E-4</v>
+        <v>5.1579999999999996E-4</v>
       </c>
       <c r="F10" s="9">
-        <v>1.1711E-3</v>
+        <v>1.1326000000000001E-3</v>
       </c>
       <c r="G10" s="9">
-        <v>2.6857999999999999E-3</v>
+        <v>2.5092999999999999E-3</v>
       </c>
       <c r="H10" s="9">
-        <v>4.9883999999999996E-3</v>
+        <v>5.3042999999999996E-3</v>
       </c>
       <c r="I10" s="9">
-        <v>0.121168</v>
+        <v>1.2391299999999999E-2</v>
       </c>
       <c r="J10" s="9">
-        <v>2.7891699999999998E-2</v>
+        <v>2.8431700000000001E-2</v>
       </c>
       <c r="K10" s="9">
-        <v>5.30225E-2</v>
+        <v>6.3371800000000006E-2</v>
       </c>
       <c r="L10" s="9">
-        <v>0.1154678</v>
+        <v>0.13267390000000001</v>
       </c>
       <c r="M10" s="9">
-        <v>0.2179825</v>
+        <v>0.22083269999999999</v>
       </c>
       <c r="N10" s="9">
-        <v>0.49121179999999998</v>
+        <v>0.50887230000000006</v>
       </c>
       <c r="O10" s="9">
-        <v>1.0796962000000001</v>
+        <v>1.0385103</v>
       </c>
       <c r="P10" s="9">
-        <v>2.2684131999999999</v>
+        <v>2.2221183999999998</v>
       </c>
       <c r="Q10" s="9">
-        <v>4.8327337000000004</v>
+        <v>4.5963928999999997</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1879,46 +3022,46 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="7">
-        <v>7.2200000000000007E-5</v>
+        <v>8.1199999999999995E-5</v>
       </c>
       <c r="E14" s="7">
-        <v>3.7829999999999998E-4</v>
+        <v>1.7640000000000001E-4</v>
       </c>
       <c r="F14" s="7">
-        <v>3.8529999999999999E-4</v>
+        <v>3.6759999999999999E-4</v>
       </c>
       <c r="G14" s="7">
-        <v>8.3339999999999998E-4</v>
+        <v>8.1249999999999996E-4</v>
       </c>
       <c r="H14" s="7">
-        <v>2.8073E-3</v>
+        <v>2.7940999999999999E-3</v>
       </c>
       <c r="I14" s="9">
-        <v>3.5016000000000001E-3</v>
+        <v>3.6058000000000002E-3</v>
       </c>
       <c r="J14" s="9">
-        <v>9.9197E-3</v>
+        <v>9.6098999999999993E-3</v>
       </c>
       <c r="K14" s="9">
-        <v>1.6637800000000001E-2</v>
+        <v>1.52631E-2</v>
       </c>
       <c r="L14" s="9">
-        <v>4.5095900000000001E-2</v>
+        <v>4.09056E-2</v>
       </c>
       <c r="M14" s="9">
-        <v>9.5846600000000004E-2</v>
+        <v>8.4637000000000004E-2</v>
       </c>
       <c r="N14" s="9">
-        <v>0.17771000000000001</v>
+        <v>0.15823400000000001</v>
       </c>
       <c r="O14" s="9">
-        <v>0.31670290000000001</v>
+        <v>0.33832319999999999</v>
       </c>
       <c r="P14" s="9">
-        <v>0.70050109999999999</v>
+        <v>0.68910470000000001</v>
       </c>
       <c r="Q14" s="9">
-        <v>1.2860301999999999</v>
+        <v>1.3098331999999999</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1942,7 +3085,9 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1960,40 +3105,500 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="B17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6">
+        <f>2*C17</f>
+        <v>128</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17" si="15">2*D17</f>
+        <v>256</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17" si="16">2*E17</f>
+        <v>512</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ref="G17" si="17">2*F17</f>
+        <v>1024</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17" si="18">2*G17</f>
+        <v>2048</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" ref="I17" si="19">2*H17</f>
+        <v>4096</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" ref="J17" si="20">2*I17</f>
+        <v>8192</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" ref="K17" si="21">2*J17</f>
+        <v>16384</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" ref="L17" si="22">2*K17</f>
+        <v>32768</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" ref="M17" si="23">2*L17</f>
+        <v>65536</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" ref="N17" si="24">2*M17</f>
+        <v>131072</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" ref="O17" si="25">2*N17</f>
+        <v>262144</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" ref="P17" si="26">2*O17</f>
+        <v>524288</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" ref="Q17" si="27">2*P17</f>
+        <v>1048576</v>
+      </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="B18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9">
+        <v>2.6870000000000003E-4</v>
+      </c>
+      <c r="E18" s="9">
+        <v>6.4749999999999996E-4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.4071000000000001E-3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2.6928E-3</v>
+      </c>
+      <c r="H18" s="9">
+        <v>6.4320000000000002E-3</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.7066600000000001E-2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>3.7819600000000002E-2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.1057158</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.36983559999999999</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1.3226891000000001</v>
+      </c>
+      <c r="N18" s="9">
+        <v>4.9553168999999997</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6">
+        <f>2*C21</f>
+        <v>128</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21" si="28">2*D21</f>
+        <v>256</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21" si="29">2*E21</f>
+        <v>512</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" ref="G21" si="30">2*F21</f>
+        <v>1024</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21" si="31">2*G21</f>
+        <v>2048</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21" si="32">2*H21</f>
+        <v>4096</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" ref="J21" si="33">2*I21</f>
+        <v>8192</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" ref="K21" si="34">2*J21</f>
+        <v>16384</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" ref="L21" si="35">2*K21</f>
+        <v>32768</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" ref="M21" si="36">2*L21</f>
+        <v>65536</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" ref="N21" si="37">2*M21</f>
+        <v>131072</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" ref="O21" si="38">2*N21</f>
+        <v>262144</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" ref="P21" si="39">2*O21</f>
+        <v>524288</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21" si="40">2*P21</f>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9">
+        <v>6.4090000000000002E-4</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1.4375E-3</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3.1097E-3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>7.9708999999999995E-3</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1.41157E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <v>3.3729500000000003E-2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>8.4215899999999996E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.1847193</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.51248179999999999</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1.5792938000000001</v>
+      </c>
+      <c r="N22" s="9">
+        <v>5.3206106000000002</v>
+      </c>
+      <c r="O22" s="9">
+        <v>19.869207899999999</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>64</v>
+      </c>
+      <c r="D25" s="6">
+        <f>2*C25</f>
+        <v>128</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" ref="E25" si="41">2*D25</f>
+        <v>256</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" ref="F25" si="42">2*E25</f>
+        <v>512</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" ref="G25" si="43">2*F25</f>
+        <v>1024</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" ref="H25" si="44">2*G25</f>
+        <v>2048</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" ref="I25" si="45">2*H25</f>
+        <v>4096</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" ref="J25" si="46">2*I25</f>
+        <v>8192</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" ref="K25" si="47">2*J25</f>
+        <v>16384</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" ref="L25" si="48">2*K25</f>
+        <v>32768</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" ref="M25" si="49">2*L25</f>
+        <v>65536</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" ref="N25" si="50">2*M25</f>
+        <v>131072</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25" si="51">2*N25</f>
+        <v>262144</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" ref="P25" si="52">2*O25</f>
+        <v>524288</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" ref="Q25" si="53">2*P25</f>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="7">
+        <v>2.499E-4</v>
+      </c>
+      <c r="E26" s="7">
+        <v>6.1749999999999999E-4</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.4785E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2.9320000000000001E-3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>7.4485000000000003E-3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1.46541E-2</v>
+      </c>
+      <c r="J26" s="9">
+        <v>2.9522900000000001E-2</v>
+      </c>
+      <c r="K26" s="9">
+        <v>7.45112E-2</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.12684139999999999</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.26957219999999998</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0.58267069999999999</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1.2271125000000001</v>
+      </c>
+      <c r="P26" s="9">
+        <v>2.5768135999999999</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>5.4990740000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>64</v>
+      </c>
+      <c r="D29" s="6">
+        <f>2*C29</f>
+        <v>128</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" ref="E29" si="54">2*D29</f>
+        <v>256</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" ref="F29" si="55">2*E29</f>
+        <v>512</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" ref="G29" si="56">2*F29</f>
+        <v>1024</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" ref="H29" si="57">2*G29</f>
+        <v>2048</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29" si="58">2*H29</f>
+        <v>4096</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" ref="J29" si="59">2*I29</f>
+        <v>8192</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" ref="K29" si="60">2*J29</f>
+        <v>16384</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" ref="L29" si="61">2*K29</f>
+        <v>32768</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" ref="M29" si="62">2*L29</f>
+        <v>65536</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" ref="N29" si="63">2*M29</f>
+        <v>131072</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" ref="O29" si="64">2*N29</f>
+        <v>262144</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" ref="P29" si="65">2*O29</f>
+        <v>524288</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" ref="Q29" si="66">2*P29</f>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="7">
+        <v>2.0599999999999999E-4</v>
+      </c>
+      <c r="E30" s="7">
+        <v>5.1699999999999999E-4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1.2363999999999999E-3</v>
+      </c>
+      <c r="G30" s="7">
+        <v>2.8170999999999999E-3</v>
+      </c>
+      <c r="H30" s="7">
+        <v>7.4878999999999996E-3</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1.5850699999999999E-2</v>
+      </c>
+      <c r="J30" s="9">
+        <v>4.0823499999999999E-2</v>
+      </c>
+      <c r="K30" s="9">
+        <v>6.5340800000000004E-2</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.13601060000000001</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.33168429999999999</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0.77328300000000005</v>
+      </c>
+      <c r="O30" s="9">
+        <v>2.6688417000000002</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8.5369285000000001</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>12.5270075</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
